--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H2">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I2">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J2">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>2.602222650794693</v>
+        <v>2.899555292114</v>
       </c>
       <c r="R2">
-        <v>2.602222650794693</v>
+        <v>11.598221168456</v>
       </c>
       <c r="S2">
-        <v>0.0002457336264727991</v>
+        <v>0.0001645450895178757</v>
       </c>
       <c r="T2">
-        <v>0.0002457336264727991</v>
+        <v>8.360335214197653E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H3">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I3">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J3">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>218.0611880834016</v>
+        <v>254.942180636715</v>
       </c>
       <c r="R3">
-        <v>218.0611880834016</v>
+        <v>1529.65308382029</v>
       </c>
       <c r="S3">
-        <v>0.0205919991221109</v>
+        <v>0.01446755785235131</v>
       </c>
       <c r="T3">
-        <v>0.0205919991221109</v>
+        <v>0.01102618440916595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H4">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I4">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J4">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>1.85153801742039</v>
+        <v>2.061546629904667</v>
       </c>
       <c r="R4">
-        <v>1.85153801742039</v>
+        <v>12.369279779428</v>
       </c>
       <c r="S4">
-        <v>0.0001748448202285924</v>
+        <v>0.0001169894485838974</v>
       </c>
       <c r="T4">
-        <v>0.0001748448202285924</v>
+        <v>8.916136691328625E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H5">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I5">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J5">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>1.320456880071185</v>
+        <v>1.445837512062667</v>
       </c>
       <c r="R5">
-        <v>1.320456880071185</v>
+        <v>8.675025072376002</v>
       </c>
       <c r="S5">
-        <v>0.0001246936566483875</v>
+        <v>8.204894850520431E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001246936566483875</v>
+        <v>6.253210431430977E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H6">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I6">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J6">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>4.242723136762243</v>
+        <v>5.236139557770334</v>
       </c>
       <c r="R6">
-        <v>4.242723136762243</v>
+        <v>31.416837346622</v>
       </c>
       <c r="S6">
-        <v>0.0004006497069719389</v>
+        <v>0.0002971424806433852</v>
       </c>
       <c r="T6">
-        <v>0.0004006497069719389</v>
+        <v>0.0002264617028532226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H7">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I7">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J7">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>94.67558098744533</v>
+        <v>111.4234266169765</v>
       </c>
       <c r="R7">
-        <v>94.67558098744533</v>
+        <v>445.6937064679061</v>
       </c>
       <c r="S7">
-        <v>0.008940424005362969</v>
+        <v>0.00632309987567501</v>
       </c>
       <c r="T7">
-        <v>0.008940424005362969</v>
+        <v>0.00321268988994969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J8">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>66.24007666881738</v>
+        <v>72.31182101308933</v>
       </c>
       <c r="R8">
-        <v>66.24007666881738</v>
+        <v>433.870926078536</v>
       </c>
       <c r="S8">
-        <v>0.00625519659230304</v>
+        <v>0.004103579295128537</v>
       </c>
       <c r="T8">
-        <v>0.00625519659230304</v>
+        <v>0.003127467849618367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J9">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>5550.789365670444</v>
+        <v>6357.98647641861</v>
       </c>
       <c r="R9">
-        <v>5550.789365670444</v>
+        <v>57221.87828776749</v>
       </c>
       <c r="S9">
-        <v>0.5241732870922056</v>
+        <v>0.360805485158726</v>
       </c>
       <c r="T9">
-        <v>0.5241732870922056</v>
+        <v>0.4124719447261931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J10">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>47.13125534884646</v>
+        <v>51.41277744116312</v>
       </c>
       <c r="R10">
-        <v>47.13125534884646</v>
+        <v>462.7149969704681</v>
       </c>
       <c r="S10">
-        <v>0.004450708433250555</v>
+        <v>0.002917592256104561</v>
       </c>
       <c r="T10">
-        <v>0.004450708433250555</v>
+        <v>0.00333538430344017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J11">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>33.61248313900853</v>
+        <v>36.05764776089512</v>
       </c>
       <c r="R11">
-        <v>33.61248313900853</v>
+        <v>324.518829848056</v>
       </c>
       <c r="S11">
-        <v>0.003174100945582787</v>
+        <v>0.002046213395121989</v>
       </c>
       <c r="T11">
-        <v>0.003174100945582787</v>
+        <v>0.002339226129113466</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H12">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I12">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J12">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>107.9993311786254</v>
+        <v>130.5837441799536</v>
       </c>
       <c r="R12">
-        <v>107.9993311786254</v>
+        <v>1175.253697619582</v>
       </c>
       <c r="S12">
-        <v>0.01019861513351123</v>
+        <v>0.007410417016053595</v>
       </c>
       <c r="T12">
-        <v>0.01019861513351123</v>
+        <v>0.008471570537512867</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H13">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I13">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J13">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N13">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O13">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P13">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q13">
-        <v>2409.985072321928</v>
+        <v>2778.781595958998</v>
       </c>
       <c r="R13">
-        <v>2409.985072321928</v>
+        <v>16672.68957575399</v>
       </c>
       <c r="S13">
-        <v>0.2275802077835739</v>
+        <v>0.1576913769160578</v>
       </c>
       <c r="T13">
-        <v>0.2275802077835739</v>
+        <v>0.1201815966009193</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H14">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I14">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J14">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N14">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O14">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P14">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q14">
-        <v>4.864218615996532</v>
+        <v>44.93297908316799</v>
       </c>
       <c r="R14">
-        <v>4.864218615996532</v>
+        <v>269.597874499008</v>
       </c>
       <c r="S14">
-        <v>0.0004593388963470495</v>
+        <v>0.002549874142994625</v>
       </c>
       <c r="T14">
-        <v>0.0004593388963470495</v>
+        <v>0.001943339906275427</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H15">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I15">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J15">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P15">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q15">
-        <v>407.6120427964445</v>
+        <v>3950.71330459608</v>
       </c>
       <c r="R15">
-        <v>407.6120427964445</v>
+        <v>35556.41974136472</v>
       </c>
       <c r="S15">
-        <v>0.0384917045587037</v>
+        <v>0.2241966125399432</v>
       </c>
       <c r="T15">
-        <v>0.0384917045587037</v>
+        <v>0.2563010169723268</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H16">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I16">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J16">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N16">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O16">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P16">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q16">
-        <v>3.460997347713941</v>
+        <v>31.94677192478933</v>
       </c>
       <c r="R16">
-        <v>3.460997347713941</v>
+        <v>287.5209473231041</v>
       </c>
       <c r="S16">
-        <v>0.0003268296159080611</v>
+        <v>0.001812927817058143</v>
       </c>
       <c r="T16">
-        <v>0.0003268296159080611</v>
+        <v>0.002072534629070894</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H17">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I17">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J17">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N17">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O17">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P17">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q17">
-        <v>2.468271089601592</v>
+        <v>22.40543122728533</v>
       </c>
       <c r="R17">
-        <v>2.468271089601592</v>
+        <v>201.648881045568</v>
       </c>
       <c r="S17">
-        <v>0.000233084284997879</v>
+        <v>0.001271472110570577</v>
       </c>
       <c r="T17">
-        <v>0.000233084284997879</v>
+        <v>0.001453543794882852</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H18">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I18">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J18">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N18">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O18">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P18">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q18">
-        <v>7.930732928658357</v>
+        <v>81.14187367481065</v>
       </c>
       <c r="R18">
-        <v>7.930732928658357</v>
+        <v>730.276863073296</v>
       </c>
       <c r="S18">
-        <v>0.0007489166088656182</v>
+        <v>0.004604670551991994</v>
       </c>
       <c r="T18">
-        <v>0.0007489166088656182</v>
+        <v>0.005264048068914557</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H19">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I19">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J19">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N19">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O19">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P19">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q19">
-        <v>176.9728364245772</v>
+        <v>1726.673918297768</v>
       </c>
       <c r="R19">
-        <v>176.9728364245772</v>
+        <v>10360.04350978661</v>
       </c>
       <c r="S19">
-        <v>0.01671193541740481</v>
+        <v>0.09798596192568035</v>
       </c>
       <c r="T19">
-        <v>0.01671193541740481</v>
+        <v>0.0746782073884345</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H20">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I20">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J20">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N20">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O20">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P20">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q20">
-        <v>3.713482937704303</v>
+        <v>5.461843124592666</v>
       </c>
       <c r="R20">
-        <v>3.713482937704303</v>
+        <v>32.771058747556</v>
       </c>
       <c r="S20">
-        <v>0.0003506723872564346</v>
+        <v>0.0003099507942866156</v>
       </c>
       <c r="T20">
-        <v>0.0003506723872564346</v>
+        <v>0.0002362233246585048</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H21">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I21">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J21">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P21">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q21">
-        <v>311.1826349970271</v>
+        <v>480.230261608185</v>
       </c>
       <c r="R21">
-        <v>311.1826349970271</v>
+        <v>4322.072354473665</v>
       </c>
       <c r="S21">
-        <v>0.02938566281783317</v>
+        <v>0.02725229334319757</v>
       </c>
       <c r="T21">
-        <v>0.02938566281783317</v>
+        <v>0.03115475483575956</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H22">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I22">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J22">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N22">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O22">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P22">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q22">
-        <v>2.64222388276488</v>
+        <v>3.883300420997556</v>
       </c>
       <c r="R22">
-        <v>2.64222388276488</v>
+        <v>34.949703788978</v>
       </c>
       <c r="S22">
-        <v>0.0002495110310666805</v>
+        <v>0.0002203710400473111</v>
       </c>
       <c r="T22">
-        <v>0.0002495110310666805</v>
+        <v>0.0002519276318919064</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H23">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I23">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J23">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N23">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O23">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P23">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q23">
-        <v>1.884348402171169</v>
+        <v>2.723499598719556</v>
       </c>
       <c r="R23">
-        <v>1.884348402171169</v>
+        <v>24.511496388476</v>
       </c>
       <c r="S23">
-        <v>0.0001779431772536204</v>
+        <v>0.000154554212672551</v>
       </c>
       <c r="T23">
-        <v>0.0001779431772536204</v>
+        <v>0.0001766859964410688</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H24">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I24">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J24">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N24">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O24">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P24">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q24">
-        <v>6.054547243664323</v>
+        <v>9.863227275160776</v>
       </c>
       <c r="R24">
-        <v>6.054547243664323</v>
+        <v>88.76904547644699</v>
       </c>
       <c r="S24">
-        <v>0.0005717442550052985</v>
+        <v>0.0005597222509742969</v>
       </c>
       <c r="T24">
-        <v>0.0005717442550052985</v>
+        <v>0.0006398731029943354</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H25">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I25">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J25">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N25">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O25">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P25">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q25">
-        <v>135.1061003587654</v>
+        <v>209.8864188731468</v>
       </c>
       <c r="R25">
-        <v>135.1061003587654</v>
+        <v>1259.318513238881</v>
       </c>
       <c r="S25">
-        <v>0.01275836715571528</v>
+        <v>0.0119107159901369</v>
       </c>
       <c r="T25">
-        <v>0.01275836715571528</v>
+        <v>0.009077534183221323</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H26">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I26">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J26">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N26">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O26">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P26">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q26">
-        <v>1.374683955849218</v>
+        <v>1.43632642957</v>
       </c>
       <c r="R26">
-        <v>1.374683955849218</v>
+        <v>8.617958577419998</v>
       </c>
       <c r="S26">
-        <v>0.0001298144390610231</v>
+        <v>8.150920990307307E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001298144390610231</v>
+        <v>6.212075241784043E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H27">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I27">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J27">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P27">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q27">
-        <v>115.1958371279743</v>
+        <v>126.288397761075</v>
       </c>
       <c r="R27">
-        <v>115.1958371279743</v>
+        <v>1136.595579849675</v>
       </c>
       <c r="S27">
-        <v>0.01087819706871824</v>
+        <v>0.00716666302973476</v>
       </c>
       <c r="T27">
-        <v>0.01087819706871824</v>
+        <v>0.008192911578856899</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H28">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I28">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J28">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N28">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O28">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P28">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q28">
-        <v>0.9781175355672878</v>
+        <v>1.021209672523333</v>
       </c>
       <c r="R28">
-        <v>0.9781175355672878</v>
+        <v>9.19088705271</v>
       </c>
       <c r="S28">
-        <v>9.236579700748676E-05</v>
+        <v>5.795200299814317E-05</v>
       </c>
       <c r="T28">
-        <v>9.236579700748676E-05</v>
+        <v>6.625058753446221E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H29">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I29">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J29">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N29">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O29">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P29">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q29">
-        <v>0.6975617120503602</v>
+        <v>0.7162114263133333</v>
       </c>
       <c r="R29">
-        <v>0.6975617120503602</v>
+        <v>6.44590283682</v>
       </c>
       <c r="S29">
-        <v>6.587229157288337E-05</v>
+        <v>4.064384410153179E-05</v>
       </c>
       <c r="T29">
-        <v>6.587229157288337E-05</v>
+        <v>4.646394278161263E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H30">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I30">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J30">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N30">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O30">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P30">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q30">
-        <v>2.241316062419242</v>
+        <v>2.593779003351666</v>
       </c>
       <c r="R30">
-        <v>2.241316062419242</v>
+        <v>23.344011030165</v>
       </c>
       <c r="S30">
-        <v>0.0002116524210262393</v>
+        <v>0.0001471927779604164</v>
       </c>
       <c r="T30">
-        <v>0.0002116524210262393</v>
+        <v>0.0001682704223531269</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H31">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I31">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J31">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N31">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O31">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P31">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q31">
-        <v>50.01455281099722</v>
+        <v>55.1948131351325</v>
       </c>
       <c r="R31">
-        <v>50.01455281099722</v>
+        <v>331.168878810795</v>
       </c>
       <c r="S31">
-        <v>0.004722984574324704</v>
+        <v>0.003132216686104748</v>
       </c>
       <c r="T31">
-        <v>0.004722984574324704</v>
+        <v>0.002387161616557465</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H32">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I32">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J32">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N32">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O32">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P32">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q32">
-        <v>6.584710151295866</v>
+        <v>8.126158500130998</v>
       </c>
       <c r="R32">
-        <v>6.584710151295866</v>
+        <v>32.50463400052399</v>
       </c>
       <c r="S32">
-        <v>0.0006218087081272774</v>
+        <v>0.000461146397682811</v>
       </c>
       <c r="T32">
-        <v>0.0006218087081272774</v>
+        <v>0.0002343028575780845</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H33">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I33">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J33">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P33">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q33">
-        <v>551.7858813264545</v>
+        <v>714.4890714301724</v>
       </c>
       <c r="R33">
-        <v>551.7858813264545</v>
+        <v>4286.934428581035</v>
       </c>
       <c r="S33">
-        <v>0.0521063582370366</v>
+        <v>0.04054610323788899</v>
       </c>
       <c r="T33">
-        <v>0.0521063582370366</v>
+        <v>0.03090147044419011</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H34">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I34">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J34">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N34">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O34">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P34">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q34">
-        <v>4.685164497778466</v>
+        <v>5.777594486843667</v>
       </c>
       <c r="R34">
-        <v>4.685164497778466</v>
+        <v>34.665566921062</v>
       </c>
       <c r="S34">
-        <v>0.000442430420897734</v>
+        <v>0.0003278691751873995</v>
       </c>
       <c r="T34">
-        <v>0.000442430420897734</v>
+        <v>0.0002498794906916414</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H35">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I35">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J35">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N35">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O35">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P35">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q35">
-        <v>3.341307408840626</v>
+        <v>4.052036814200667</v>
       </c>
       <c r="R35">
-        <v>3.341307408840626</v>
+        <v>24.312220885204</v>
       </c>
       <c r="S35">
-        <v>0.0003155270308957197</v>
+        <v>0.000229946558403537</v>
       </c>
       <c r="T35">
-        <v>0.0003155270308957197</v>
+        <v>0.000175249560643601</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H36">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I36">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J36">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N36">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O36">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P36">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q36">
-        <v>10.73586155252491</v>
+        <v>14.67456064416883</v>
       </c>
       <c r="R36">
-        <v>10.73586155252491</v>
+        <v>88.047363865013</v>
       </c>
       <c r="S36">
-        <v>0.001013811094068439</v>
+        <v>0.0008327576650796703</v>
       </c>
       <c r="T36">
-        <v>0.001013811094068439</v>
+        <v>0.0006346710119996231</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H37">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I37">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J37">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N37">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O37">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P37">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q37">
-        <v>239.5687621185995</v>
+        <v>312.2701014806747</v>
       </c>
       <c r="R37">
-        <v>239.5687621185995</v>
+        <v>1249.080405922699</v>
       </c>
       <c r="S37">
-        <v>0.02262300679268335</v>
+        <v>0.01772082496293145</v>
       </c>
       <c r="T37">
-        <v>0.02262300679268335</v>
+        <v>0.009003734927388022</v>
       </c>
     </row>
   </sheetData>
